--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R32b754c219754616"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd24d3a3350b245d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R76cc8bf429be4d03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R822b23cf854d41f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R607511e90c894723"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R31655962db004e3d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23a53e0f1ff148fd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R269ff8cd5a674df6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R76cc8bf429be4d03"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R822b23cf854d41f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R19c91c03c3c241c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb91f7f2f0e374a7b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R31655962db004e3d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4019a0647d3c472c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R269ff8cd5a674df6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R28dc45c52fdd4f8f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R19c91c03c3c241c0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb91f7f2f0e374a7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R76223038ac714692"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R22b282d042144c0e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4019a0647d3c472c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e7a84f73c4e4603"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R28dc45c52fdd4f8f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30d692dd79cb4eb3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R76223038ac714692"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R22b282d042144c0e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R04d215aaf0254220"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd6895795731d4790"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e7a84f73c4e4603"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd5921944e5c494d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30d692dd79cb4eb3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6d8442c3725d4c99"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R04d215aaf0254220"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd6895795731d4790"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R6562ed7c9a614eb9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Re074aa9954504ba4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd5921944e5c494d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R662c1176a8c64790"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6d8442c3725d4c99"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd81aeff5729b4b34"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R6562ed7c9a614eb9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Re074aa9954504ba4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rd90f144593454c66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rc7847448c26a41a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R662c1176a8c64790"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74340afdd9504f80"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd81aeff5729b4b34"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb8b5a6f3a7ae477e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rd90f144593454c66"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rc7847448c26a41a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R3293f27788d24c9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd39a5961254e4ff7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74340afdd9504f80"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0d1225691a74e89"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb8b5a6f3a7ae477e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1433282498e24ad9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R3293f27788d24c9f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd39a5961254e4ff7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R8b6c566b4a584876"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R3a82f6ffb08d4c95"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0d1225691a74e89"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R262fccde8ee14b47"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1433282498e24ad9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6eb789d4385948bf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R8b6c566b4a584876"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R3a82f6ffb08d4c95"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R145c2788da2a476d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R09ddb9ee038544af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R262fccde8ee14b47"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba0bc91f4b2d48ac"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6eb789d4385948bf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R322bbfe4d35d4729"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R145c2788da2a476d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R09ddb9ee038544af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rbe6ea0801bdf4485"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R2e411f1ce8b94df2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba0bc91f4b2d48ac"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb947604556324307"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R322bbfe4d35d4729"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbac812b2ca3d4fb4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rbe6ea0801bdf4485"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R2e411f1ce8b94df2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rbc7bfc8f1bf448d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R462dec3d44a84cc9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb947604556324307"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3964520e717647f3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbac812b2ca3d4fb4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd1975ed4d918450d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rbc7bfc8f1bf448d1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R462dec3d44a84cc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R76b7a8110da844fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rdaf81a54b3044758"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3964520e717647f3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3c72913849384af9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd1975ed4d918450d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re48fe300290b4646"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/083_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R76b7a8110da844fb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rdaf81a54b3044758"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R57bc886d50b1454a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R97797facb3254204"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3c72913849384af9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf490619faf0c488e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,6 +297,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re48fe300290b4646"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R61d8829a033a485b"/>
 </x:worksheet>
 </file>